--- a/db_crawler/db/fake database.xlsx
+++ b/db_crawler/db/fake database.xlsx
@@ -122,7 +122,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -167,7 +167,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +831,7 @@
   <dimension ref="A10:C28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
